--- a/datasets/Dobelle74_data.xlsx
+++ b/datasets/Dobelle74_data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoff Boynton\Documents\matlab\p2p-cortical\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ione Fine\Documents\code\p2p-cortical\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B4C306-71D7-43DE-AE2B-5A1144202C6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10455" windowHeight="7410" xr2:uid="{703D4627-8AD8-4219-92E2-AF7AD2A46B20}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10460" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -99,13 +98,13 @@
     <t>table 5</t>
   </si>
   <si>
-    <t>type</t>
+    <t>electrode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,19 +449,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28604A9A-1C04-40C2-B1FF-E0E8E2557637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -470,10 +469,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -491,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -517,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -543,7 +542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -570,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -597,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -624,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -650,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -677,7 +676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -703,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -730,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -756,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -783,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -809,7 +808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -836,7 +835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -863,7 +862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -890,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -917,7 +916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -944,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -971,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -998,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1447,7 +1446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -1811,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -1837,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -1915,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2123,7 +2122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>0</v>
       </c>
